--- a/DateBase/orders/Dang Nguyen_2025-6-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-23.xlsx
@@ -693,6 +693,9 @@
       <c r="C31" t="str">
         <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -754,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0810681086310155510584525555555551050</v>
+        <v>0810681086310155510584525555555551055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-6-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-23.xlsx
@@ -759,6 +759,9 @@
       <c r="G2" t="str">
         <v>0810681086310155510584525555555551055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
